--- a/natmiOut/OldD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H2">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I2">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J2">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>0.5428836170611691</v>
+        <v>0.76080594551</v>
       </c>
       <c r="R2">
-        <v>0.5428836170611691</v>
+        <v>6.84725350959</v>
       </c>
       <c r="S2">
-        <v>0.03693864354016008</v>
+        <v>0.022227145208578</v>
       </c>
       <c r="T2">
-        <v>0.03693864354016008</v>
+        <v>0.022227145208578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H3">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I3">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J3">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>0.4314952754671821</v>
+        <v>0.4710171896733333</v>
       </c>
       <c r="R3">
-        <v>0.4314952754671821</v>
+        <v>4.23915470706</v>
       </c>
       <c r="S3">
-        <v>0.02935960796906774</v>
+        <v>0.01376089071384353</v>
       </c>
       <c r="T3">
-        <v>0.02935960796906774</v>
+        <v>0.01376089071384353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.420016791294834</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H4">
-        <v>0.420016791294834</v>
+        <v>1.311115</v>
       </c>
       <c r="I4">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J4">
-        <v>0.07972044919015303</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>0.1972647213752867</v>
+        <v>0.01524462546388889</v>
       </c>
       <c r="R4">
-        <v>0.1972647213752867</v>
+        <v>0.137201629175</v>
       </c>
       <c r="S4">
-        <v>0.01342219768092521</v>
+        <v>0.0004453757306130179</v>
       </c>
       <c r="T4">
-        <v>0.01342219768092521</v>
+        <v>0.0004453757306130179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.07546094531814</v>
+        <v>0.4370383333333334</v>
       </c>
       <c r="H5">
-        <v>4.07546094531814</v>
+        <v>1.311115</v>
       </c>
       <c r="I5">
-        <v>0.7735347346854604</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="J5">
-        <v>0.7735347346854604</v>
+        <v>0.04569839301109439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>5.267648877477285</v>
+        <v>0.3171281258166667</v>
       </c>
       <c r="R5">
-        <v>5.267648877477285</v>
+        <v>2.85415313235</v>
       </c>
       <c r="S5">
-        <v>0.3584190019090844</v>
+        <v>0.009264981358059846</v>
       </c>
       <c r="T5">
-        <v>0.3584190019090844</v>
+        <v>0.009264981358059846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H6">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I6">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J6">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>4.186837716260183</v>
+        <v>11.013402646566</v>
       </c>
       <c r="R6">
-        <v>4.186837716260183</v>
+        <v>99.12062381909399</v>
       </c>
       <c r="S6">
-        <v>0.2848789337181399</v>
+        <v>0.3217594464271206</v>
       </c>
       <c r="T6">
-        <v>0.2848789337181399</v>
+        <v>0.3217594464271207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.07546094531814</v>
+        <v>6.326553</v>
       </c>
       <c r="H7">
-        <v>4.07546094531814</v>
+        <v>18.979659</v>
       </c>
       <c r="I7">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J7">
-        <v>0.7735347346854604</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>1.914077447655445</v>
+        <v>6.818429842643999</v>
       </c>
       <c r="R7">
-        <v>1.914077447655445</v>
+        <v>61.36586858379599</v>
       </c>
       <c r="S7">
-        <v>0.1302367990582362</v>
+        <v>0.1992022158887792</v>
       </c>
       <c r="T7">
-        <v>0.1302367990582362</v>
+        <v>0.1992022158887792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.773142743597692</v>
+        <v>6.326553</v>
       </c>
       <c r="H8">
-        <v>0.773142743597692</v>
+        <v>18.979659</v>
       </c>
       <c r="I8">
-        <v>0.1467448161243867</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J8">
-        <v>0.1467448161243867</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29252836627688</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N8">
-        <v>1.29252836627688</v>
+        <v>0.104645</v>
       </c>
       <c r="O8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q8">
-        <v>0.9993089272811496</v>
+        <v>0.220680712895</v>
       </c>
       <c r="R8">
-        <v>0.9993089272811496</v>
+        <v>1.986126416055</v>
       </c>
       <c r="S8">
-        <v>0.06799452975052472</v>
+        <v>0.006447244897595512</v>
       </c>
       <c r="T8">
-        <v>0.06799452975052472</v>
+        <v>0.006447244897595512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.773142743597692</v>
+        <v>6.326553</v>
       </c>
       <c r="H9">
-        <v>0.773142743597692</v>
+        <v>18.979659</v>
       </c>
       <c r="I9">
-        <v>0.1467448161243867</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="J9">
-        <v>0.1467448161243867</v>
+        <v>0.6615284823974669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02732863164104</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N9">
-        <v>1.02732863164104</v>
+        <v>2.17689</v>
       </c>
       <c r="O9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q9">
-        <v>0.7942716768434163</v>
+        <v>4.59073665339</v>
       </c>
       <c r="R9">
-        <v>0.7942716768434163</v>
+        <v>41.31662988051</v>
       </c>
       <c r="S9">
-        <v>0.05404347713380783</v>
+        <v>0.1341195751839715</v>
       </c>
       <c r="T9">
-        <v>0.05404347713380783</v>
+        <v>0.1341195751839715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8278226666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.483468</v>
+      </c>
+      <c r="I10">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="J10">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.740822</v>
+      </c>
+      <c r="N10">
+        <v>5.222466</v>
+      </c>
+      <c r="O10">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P10">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q10">
+        <v>1.441091910232</v>
+      </c>
+      <c r="R10">
+        <v>12.969827192088</v>
+      </c>
+      <c r="S10">
+        <v>0.04210187806321855</v>
+      </c>
+      <c r="T10">
+        <v>0.04210187806321855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8278226666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.483468</v>
+      </c>
+      <c r="I11">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="J11">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.077748</v>
+      </c>
+      <c r="N11">
+        <v>3.233244</v>
+      </c>
+      <c r="O11">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P11">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q11">
+        <v>0.8921842233546666</v>
+      </c>
+      <c r="R11">
+        <v>8.029658010192001</v>
+      </c>
+      <c r="S11">
+        <v>0.02606539604788868</v>
+      </c>
+      <c r="T11">
+        <v>0.02606539604788868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8278226666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.483468</v>
+      </c>
+      <c r="I12">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="J12">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.104645</v>
+      </c>
+      <c r="O12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q12">
+        <v>0.02887583431777778</v>
+      </c>
+      <c r="R12">
+        <v>0.25988250886</v>
+      </c>
+      <c r="S12">
+        <v>0.0008436150718694015</v>
+      </c>
+      <c r="T12">
+        <v>0.0008436150718694015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8278226666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.483468</v>
+      </c>
+      <c r="I13">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="J13">
+        <v>0.08656029157966813</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.17689</v>
+      </c>
+      <c r="O13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q13">
+        <v>0.6006929616133334</v>
+      </c>
+      <c r="R13">
+        <v>5.406236654520001</v>
+      </c>
+      <c r="S13">
+        <v>0.01754940239669149</v>
+      </c>
+      <c r="T13">
+        <v>0.01754940239669149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.773142743597692</v>
-      </c>
-      <c r="H10">
-        <v>0.773142743597692</v>
-      </c>
-      <c r="I10">
-        <v>0.1467448161243867</v>
-      </c>
-      <c r="J10">
-        <v>0.1467448161243867</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.469659131405571</v>
-      </c>
-      <c r="N10">
-        <v>0.469659131405571</v>
-      </c>
-      <c r="O10">
-        <v>0.1683658059792155</v>
-      </c>
-      <c r="P10">
-        <v>0.1683658059792155</v>
-      </c>
-      <c r="Q10">
-        <v>0.3631135494106121</v>
-      </c>
-      <c r="R10">
-        <v>0.3631135494106121</v>
-      </c>
-      <c r="S10">
-        <v>0.02470680924005414</v>
-      </c>
-      <c r="T10">
-        <v>0.02470680924005414</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.916373</v>
+      </c>
+      <c r="I14">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J14">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>3.433117426202</v>
+      </c>
+      <c r="R14">
+        <v>30.898056835818</v>
+      </c>
+      <c r="S14">
+        <v>0.1002994258925496</v>
+      </c>
+      <c r="T14">
+        <v>0.1002994258925497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.916373</v>
+      </c>
+      <c r="I15">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J15">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>2.125453056001333</v>
+      </c>
+      <c r="R15">
+        <v>19.129077504012</v>
+      </c>
+      <c r="S15">
+        <v>0.06209566840081501</v>
+      </c>
+      <c r="T15">
+        <v>0.06209566840081503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.916373</v>
+      </c>
+      <c r="I16">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J16">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>0.06879098362055555</v>
+      </c>
+      <c r="R16">
+        <v>0.619118852585</v>
+      </c>
+      <c r="S16">
+        <v>0.002009746625928414</v>
+      </c>
+      <c r="T16">
+        <v>0.002009746625928414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.972124333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.916373</v>
+      </c>
+      <c r="I17">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="J17">
+        <v>0.2062128330117706</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>1.431032579996667</v>
+      </c>
+      <c r="R17">
+        <v>12.87929321997</v>
+      </c>
+      <c r="S17">
+        <v>0.04180799209247747</v>
+      </c>
+      <c r="T17">
+        <v>0.04180799209247747</v>
       </c>
     </row>
   </sheetData>
